--- a/oflanTigran.xlsx
+++ b/oflanTigran.xlsx
@@ -90,19 +90,19 @@
     <t>Far East</t>
   </si>
   <si>
-    <t>god2017</t>
-  </si>
-  <si>
-    <t>god2018</t>
-  </si>
-  <si>
-    <t>god2019</t>
-  </si>
-  <si>
-    <t>god2020</t>
-  </si>
-  <si>
-    <t>god2021</t>
+    <t>g2017</t>
+  </si>
+  <si>
+    <t>g2018</t>
+  </si>
+  <si>
+    <t>g2019</t>
+  </si>
+  <si>
+    <t>g2020</t>
+  </si>
+  <si>
+    <t>g2021</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
